--- a/japan.xlsx
+++ b/japan.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="list" sheetId="1" r:id="rId1"/>
+    <sheet name="issue" sheetId="4" r:id="rId2"/>
+    <sheet name="tbd" sheetId="5" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -141,35 +144,142 @@
   </si>
   <si>
     <t xml:space="preserve">  delete bug*1                             </t>
+  </si>
+  <si>
+    <t>Different folders with same name files causes errors, more often with "Always Ask Password" option</t>
+  </si>
+  <si>
+    <t>When start(logon, restart), YGFSMon task runs multiple(we see 3 tasks) and decryption fails.</t>
+  </si>
+  <si>
+    <t>be compatible with old versions</t>
+  </si>
+  <si>
+    <t>Context menu decrypt files inside of AEF causes error but they are decrypted</t>
+  </si>
+  <si>
+    <t>2015/8/7 Sorry, I got this today. Sometimes the saved modifications made on files in AEF were not applied to the files, I am asking the customer now</t>
+  </si>
+  <si>
+    <t>Context menu sometimes does not appear</t>
+  </si>
+  <si>
+    <t>3) Self Extracting Ecrypted file tool behavior
+We expect this tool can take normal files/folders like Encryption main
+application, and also users can specify encrypted files which are made by
+Encryption.
+And also we expect it asks users the option to "delete source" or not.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>log should be recored in certain places, or system event</t>
+  </si>
+  <si>
+    <t>compatible with Win10 and earlier</t>
+  </si>
+  <si>
+    <t>MBR and GPT disk aware</t>
+  </si>
+  <si>
+    <t>securely delete entire disk. Look at "delete bug" sheet bellow</t>
+  </si>
+  <si>
+    <t>BIOS and UEFI compatible boot disk</t>
+  </si>
+  <si>
+    <t>MBR and GPT aware disk delete tool run on above</t>
+  </si>
+  <si>
+    <t>log should be recored in certain places in boot USB or other externals</t>
+  </si>
+  <si>
+    <t>BIOS and UEFI compatible diskdlete boot disk creating tool</t>
+  </si>
+  <si>
+    <t>securely delete entire disk</t>
+  </si>
+  <si>
+    <t>Exact cases</t>
+  </si>
+  <si>
+    <t>The following 2 problems are reported with certain customer's disk/environment, but these should happen by next issue</t>
+  </si>
+  <si>
+    <t>The customer has following disk and tried to delete it by both Windows and DOS versions of DiskDelete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardDisk Model: </t>
+  </si>
+  <si>
+    <t>TOSHIBA MK2575GSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem 1. </t>
+  </si>
+  <si>
+    <t>Last sector is not same in both, ie, any or both of these have bugs.</t>
+  </si>
+  <si>
+    <t>Windows version Last sector position:488392064(C:30401/H:0/S:1)</t>
+  </si>
+  <si>
+    <t>DOS version last sector position:488397167(C:30401/H:80/S:63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem 2. </t>
+  </si>
+  <si>
+    <t>Windows DiskDelete does not delete sectors after certain position.</t>
+  </si>
+  <si>
+    <t>That position is in absolute position: 488392128(C:30401/H:1/S:1) by "0" writing method.</t>
+  </si>
+  <si>
+    <t>(He confirmed this by cheking with DOS DiskDelte's DIskViewer after deleting with Windows DiskDelete "0" method)</t>
+  </si>
+  <si>
+    <t>no exact case here, but we got several reports before</t>
+  </si>
+  <si>
+    <t>wrong diskinfo</t>
+  </si>
+  <si>
+    <t>DOS diskdelete and Windows diskdelete on MBR disk read wrong the disk parameters, CHS. Some cases, Heads are 0 as above, thus disk info was not recoreded after generating delete log.</t>
+  </si>
+  <si>
+    <t>1) compatibility with cloud storages
+About AEF, as you know, Dropbox, OneDrive and GoogleDrive are automatically syncronized
+with the local folder and cloud disk.
+So we expect AEF does work with those cloud sync storages, just users do
+like with normal folders.
+Is this correct?
+or is there any issues to use with these?
+2) decrypt encrypted files/folders alone
+I mean, current and old versions decrypt files/folders with their parent
+full path.
+ie, if I encrypted folder like C:\\&lt;path to my account&gt;\Desktop\&lt;TheFolder&gt;,
+as I select TheFolder and did encrypt, and I get the following;
+The "disk C:" named foler and it contains &lt;path to my
+account&gt;\Desktop\&lt;TheFolder&gt;.
+We would like to get only TheFolder where user specified.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -177,10 +287,40 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,85 +415,211 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -545,7 +811,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -554,7 +820,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -563,7 +829,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -572,7 +838,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -581,7 +847,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -590,7 +856,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -702,8 +968,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -711,14 +977,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -737,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +1011,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -773,7 +1039,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +1065,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +1091,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +1117,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +1143,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +1169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,9 +1260,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1012,7 +1284,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1031,7 +1303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,9 +1550,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1293,7 +1571,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1312,7 +1590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,7 +1646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,7 +1672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,7 +1698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1446,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,7 +1750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,7 +1776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1563,383 +1841,430 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="256" width="7.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="38.25" customHeight="1">
+    <row r="4" spans="1:5" ht="38.25" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" ht="53.25" customHeight="1">
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="53.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6">
         <v>0.5</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="73.5" customHeight="1">
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="73.5" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" ht="68.25" customHeight="1">
+      <c r="E6" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68.25" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>0.5</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" ht="30.75" customHeight="1">
+      <c r="E7" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
+      <c r="E8" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="46.5" customHeight="1">
+    <row r="10" spans="1:5" ht="46.5" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" ht="34.5" customHeight="1">
+      <c r="E10" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34.5" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6">
         <v>0.5</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" ht="56.25" customHeight="1">
+      <c r="E11" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="56.25" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="72" customHeight="1">
+    <row r="13" spans="1:5" ht="72" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" ht="35.25" customHeight="1">
+    <row r="14" spans="1:5" ht="114">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="8">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="6">
         <v>9</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
+      <c r="E14" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="9"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" t="s" s="8">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" ht="66.75" customHeight="1">
+    <row r="17" spans="1:5" ht="66.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
+      <c r="E17" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" t="s" s="5">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="6">
         <v>0.5</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" ht="60" customHeight="1">
+      <c r="E18" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
-      <c r="D19" t="s" s="5">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" ht="60" customHeight="1">
+    <row r="20" spans="1:5" ht="60" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" t="s" s="8">
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" ht="46.5" customHeight="1">
+    <row r="21" spans="1:5" ht="46.5" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" t="s" s="5">
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" ht="18" customHeight="1">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" t="s" s="8">
+      <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" ht="36" customHeight="1">
+    <row r="23" spans="1:5" ht="36" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" t="s" s="5">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" ht="30.75" customHeight="1">
+      <c r="E23" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" t="s" s="5">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" ht="43.5" customHeight="1">
+      <c r="E24" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" t="s" s="5">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" ht="45" customHeight="1">
+      <c r="E25" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" t="s" s="5">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" ht="37.5" customHeight="1">
+      <c r="E26" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" t="s" s="8">
+      <c r="B27" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" ht="36" customHeight="1">
+    <row r="28" spans="1:5" ht="36" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="6">
         <v>6</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" ht="80.25" customHeight="1">
+      <c r="E28" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="80.25" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" t="s" s="5">
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" ht="48" customHeight="1">
+      <c r="E29" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="48" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" ht="29.25" customHeight="1">
+      <c r="E30" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.25" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" ht="24.75" customHeight="1">
+      <c r="E31" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24.75" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
+      <c r="E32" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12">
@@ -1950,8 +2275,9 @@
       <c r="E33" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -1959,191 +2285,602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="7.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="14" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="14" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="33"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="33"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="7.625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="15" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N33"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/japan.xlsx
+++ b/japan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">  different folders issue              </t>
   </si>
   <si>
-    <t xml:space="preserve">  run single task issue                 </t>
-  </si>
-  <si>
     <t>I assume this issue occurred by incorrect initial registration, so it may take half day.</t>
   </si>
   <si>
@@ -48,13 +45,7 @@
     <t>We request this to be compatible with current version. Not with all older versions. So this may be easier than you expect.</t>
   </si>
   <si>
-    <t xml:space="preserve">  context menu issue.                  </t>
-  </si>
-  <si>
     <t>Contextr menu did work in old versions, so it may be easier and other context menu issues will be fixed in same manner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modification not saved.     </t>
   </si>
   <si>
     <t>FileEncrypt</t>
@@ -149,13 +140,7 @@
     <t>Different folders with same name files causes errors, more often with "Always Ask Password" option</t>
   </si>
   <si>
-    <t>When start(logon, restart), YGFSMon task runs multiple(we see 3 tasks) and decryption fails.</t>
-  </si>
-  <si>
     <t>be compatible with old versions</t>
-  </si>
-  <si>
-    <t>Context menu decrypt files inside of AEF causes error but they are decrypted</t>
   </si>
   <si>
     <t>2015/8/7 Sorry, I got this today. Sometimes the saved modifications made on files in AEF were not applied to the files, I am asking the customer now</t>
@@ -262,6 +247,26 @@
 The "disk C:" named foler and it contains &lt;path to my
 account&gt;\Desktop\&lt;TheFolder&gt;.
 We would like to get only TheFolder where user specified.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  run single task issue                 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>When start(logon, restart), YGFSMon task runs multiple(we see 3 tasks) and decryption fails.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  context menu issue.                  </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context menu decrypt files inside of AEF causes error but they are decrypted</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  modification not saved.     </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1862,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
@@ -1917,71 +1922,71 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="53.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6">
         <v>0.5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="73.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C7" s="6">
         <v>0.5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -1990,35 +1995,35 @@
     <row r="10" spans="1:5" ht="46.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34.5" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6">
         <v>0.5</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="56.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
@@ -2027,27 +2032,27 @@
     <row r="13" spans="1:5" ht="72" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="114">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>9</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
@@ -2060,7 +2065,7 @@
     <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -2069,31 +2074,31 @@
     <row r="17" spans="1:5" ht="66.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>0.5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1">
@@ -2101,14 +2106,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
@@ -2117,20 +2122,20 @@
     <row r="21" spans="1:5" ht="46.5" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9"/>
@@ -2139,59 +2144,59 @@
     <row r="23" spans="1:5" ht="36" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.5" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
@@ -2200,68 +2205,68 @@
     <row r="28" spans="1:5" ht="36" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="6">
         <v>6</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="80.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="48" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="29.25" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="24.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1">
@@ -2296,68 +2301,68 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="33"/>
       <c r="B6" s="34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="33"/>
       <c r="B7" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="33"/>
       <c r="B10" s="34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2366,16 +2371,16 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="33"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N33"/>
     </sheetView>
   </sheetViews>
@@ -2396,7 +2401,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
